--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Dictionary" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rules Data'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Rules Data'!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="206">
   <si>
     <t>Shalna Narulita</t>
   </si>
@@ -638,6 +638,15 @@
   </si>
   <si>
     <t>Non-Office hour 19.30 - 06.00</t>
+  </si>
+  <si>
+    <t>Public Transportation - Client</t>
+  </si>
+  <si>
+    <t>Client - Public Transportation</t>
+  </si>
+  <si>
+    <t>Akses Terbatas</t>
   </si>
 </sst>
 </file>
@@ -2186,16 +2195,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.54296875" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="22.453125" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
@@ -2350,7 +2359,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -2370,7 +2379,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -2390,7 +2399,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -2410,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -2418,8 +2427,8 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>67</v>
+      <c r="F11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2430,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -2438,8 +2447,8 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>67</v>
+      <c r="F12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -2450,7 +2459,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -2458,8 +2467,8 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>67</v>
+      <c r="F13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2470,13 +2479,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>67</v>
@@ -2490,13 +2499,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>67</v>
@@ -2510,13 +2519,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>67</v>
@@ -2530,13 +2539,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>67</v>
@@ -2550,13 +2559,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>67</v>
@@ -2570,13 +2579,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>67</v>
@@ -2587,16 +2596,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>67</v>
@@ -2607,16 +2616,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>67</v>
@@ -2627,16 +2636,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>67</v>
@@ -2650,13 +2659,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>67</v>
@@ -2670,13 +2679,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>67</v>
@@ -2690,13 +2699,13 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>67</v>
@@ -2710,7 +2719,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2718,8 +2727,8 @@
       <c r="E26" t="s">
         <v>30</v>
       </c>
-      <c r="F26" t="s">
-        <v>22</v>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2730,7 +2739,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2738,8 +2747,8 @@
       <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>22</v>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2750,7 +2759,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -2758,8 +2767,8 @@
       <c r="E28" t="s">
         <v>30</v>
       </c>
-      <c r="F28" t="s">
-        <v>22</v>
+      <c r="F28" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2770,7 +2779,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -2778,8 +2787,8 @@
       <c r="E29" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>67</v>
+      <c r="F29" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2790,7 +2799,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -2798,8 +2807,8 @@
       <c r="E30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>67</v>
+      <c r="F30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -2810,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
         <v>32</v>
@@ -2818,8 +2827,8 @@
       <c r="E31" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>67</v>
+      <c r="F31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -2830,7 +2839,7 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -2838,8 +2847,8 @@
       <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>67</v>
+      <c r="F32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -2850,7 +2859,7 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2858,8 +2867,8 @@
       <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>67</v>
+      <c r="F33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -2870,7 +2879,7 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>32</v>
@@ -2878,8 +2887,8 @@
       <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>67</v>
+      <c r="F34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -2890,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -2910,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -2930,7 +2939,7 @@
         <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
         <v>32</v>
@@ -2947,16 +2956,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>67</v>
@@ -2967,16 +2976,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>67</v>
@@ -2987,16 +2996,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>67</v>
@@ -3007,10 +3016,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -3027,10 +3036,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -3044,14 +3053,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <f>A42+1</f>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
         <v>32</v>
@@ -3065,77 +3073,73 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <f t="shared" ref="A44:A55" si="0">A43+1</f>
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
@@ -3149,14 +3153,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -3170,14 +3173,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>32</v>
@@ -3191,14 +3193,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -3206,20 +3207,19 @@
       <c r="E50" t="s">
         <v>30</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>67</v>
+      <c r="F50" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -3227,20 +3227,19 @@
       <c r="E51" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>67</v>
+      <c r="F51" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
         <v>32</v>
@@ -3248,20 +3247,19 @@
       <c r="E52" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>67</v>
+      <c r="F52" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
@@ -3269,20 +3267,19 @@
       <c r="E53" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>67</v>
+      <c r="F53" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -3290,20 +3287,19 @@
       <c r="E54" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>67</v>
+      <c r="F54" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
         <v>32</v>
@@ -3311,8 +3307,8 @@
       <c r="E55" t="s">
         <v>30</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>67</v>
+      <c r="F55" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -3320,19 +3316,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -3340,19 +3336,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -3360,19 +3356,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -3380,10 +3376,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
@@ -3400,10 +3396,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -3420,10 +3416,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
@@ -3440,10 +3436,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
@@ -3451,8 +3447,8 @@
       <c r="E62" t="s">
         <v>30</v>
       </c>
-      <c r="F62" t="s">
-        <v>22</v>
+      <c r="F62" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -3460,10 +3456,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -3471,8 +3467,8 @@
       <c r="E63" t="s">
         <v>30</v>
       </c>
-      <c r="F63" t="s">
-        <v>22</v>
+      <c r="F63" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -3480,10 +3476,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
@@ -3491,8 +3487,8 @@
       <c r="E64" t="s">
         <v>30</v>
       </c>
-      <c r="F64" t="s">
-        <v>22</v>
+      <c r="F64" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -3503,16 +3499,16 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -3523,16 +3519,16 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -3543,16 +3539,16 @@
         <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
         <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -3563,7 +3559,7 @@
         <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
@@ -3583,7 +3579,7 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3603,7 +3599,7 @@
         <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
         <v>32</v>
@@ -3623,7 +3619,7 @@
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
         <v>33</v>
@@ -3631,8 +3627,8 @@
       <c r="E71" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>67</v>
+      <c r="F71" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -3643,7 +3639,7 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -3651,8 +3647,8 @@
       <c r="E72" t="s">
         <v>30</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>67</v>
+      <c r="F72" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -3663,7 +3659,7 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
         <v>32</v>
@@ -3671,8 +3667,8 @@
       <c r="E73" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>67</v>
+      <c r="F73" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -3680,19 +3676,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>33</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3700,19 +3696,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -3720,16 +3716,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
         <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -3740,10 +3736,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
@@ -3760,10 +3756,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -3780,10 +3776,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>32</v>
@@ -3800,10 +3796,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
         <v>33</v>
@@ -3811,8 +3807,8 @@
       <c r="E80" t="s">
         <v>30</v>
       </c>
-      <c r="F80" t="s">
-        <v>22</v>
+      <c r="F80" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -3820,10 +3816,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3831,8 +3827,8 @@
       <c r="E81" t="s">
         <v>30</v>
       </c>
-      <c r="F81" t="s">
-        <v>22</v>
+      <c r="F81" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -3840,10 +3836,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
         <v>32</v>
@@ -3851,19 +3847,19 @@
       <c r="E82" t="s">
         <v>30</v>
       </c>
-      <c r="F82" t="s">
-        <v>22</v>
+      <c r="F82" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
         <v>33</v>
@@ -3877,13 +3873,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -3897,13 +3893,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>32</v>
@@ -3917,66 +3913,1086 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
         <v>32</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>203</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>203</v>
+      </c>
+      <c r="C111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>203</v>
+      </c>
+      <c r="C113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" t="s">
+        <v>202</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>204</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" t="s">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>30</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>204</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" t="s">
+        <v>30</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>204</v>
+      </c>
+      <c r="C128" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" t="s">
+        <v>205</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" t="s">
+        <v>30</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>204</v>
+      </c>
+      <c r="C134" t="s">
+        <v>202</v>
+      </c>
+      <c r="D134" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134" t="s">
+        <v>30</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>204</v>
+      </c>
+      <c r="C135" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>204</v>
+      </c>
+      <c r="C136" t="s">
+        <v>202</v>
+      </c>
+      <c r="D136" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" t="s">
+        <v>30</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" t="s">
+        <v>30</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>204</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" t="s">
+        <v>30</v>
+      </c>
+      <c r="F139" s="3" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F88"/>
+  <autoFilter ref="A1:F103"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
